--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
@@ -52,21 +55,21 @@
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
@@ -76,45 +79,42 @@
     <t>boring</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>dumb</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
@@ -124,12 +124,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>seriously</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -151,12 +142,12 @@
     <t>[UNK]</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
@@ -166,48 +157,45 @@
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
@@ -217,61 +205,61 @@
     <t>2020</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -632,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -754,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -801,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -851,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9393939393939394</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -901,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.88</v>
@@ -951,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.7719298245614035</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.7</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,16 +1110,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.6923076923076923</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,10 +1142,10 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.6206896551724138</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1304,10 +1292,10 @@
         <v>0.75</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -1393,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.5789473684210527</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,16 +1510,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,7 +1539,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6875</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -1569,31 +1557,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.4242424242424243</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>14</v>
-      </c>
-      <c r="M20">
-        <v>14</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1589,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.675</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.4</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.3541666666666667</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5957446808510638</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,16 +1760,16 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.3157894736842105</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,37 +1789,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5714285714285714</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>15</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.2377049180327869</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L25">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>837</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5507246376811594</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C26">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.2307692307692308</v>
+        <v>0.226775956284153</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1889,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5454545454545454</v>
+        <v>0.55</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1907,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.1864406779661017</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1972,16 +1960,16 @@
         <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.1529411764705882</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2022,16 +2010,16 @@
         <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.1384615384615385</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2072,16 +2060,16 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.1296296296296296</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,38 +2089,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31">
+        <v>0.1463414634146341</v>
+      </c>
+      <c r="L31">
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>6</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31">
-        <v>0.1267605633802817</v>
-      </c>
-      <c r="L31">
-        <v>9</v>
-      </c>
-      <c r="M31">
-        <v>9</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2143,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2139,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.1232876712328767</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L32">
         <v>9</v>
@@ -2193,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2189,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.1111111111111111</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2251,13 +2239,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4102564102564102</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2269,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.09836065573770492</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2293,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2301,13 +2289,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3928571428571428</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2319,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.08421052631578947</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2343,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2351,187 +2339,115 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3684210526315789</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.0286144578313253</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37">
+        <v>0.02592592592592593</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+      <c r="M37">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38">
+        <v>0.0253968253968254</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K36">
-        <v>0.04379562043795621</v>
-      </c>
-      <c r="L36">
-        <v>6</v>
-      </c>
-      <c r="M36">
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>19</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37">
-        <v>0.03812316715542522</v>
-      </c>
-      <c r="L37">
-        <v>13</v>
-      </c>
-      <c r="M37">
-        <v>13</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>69</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.03012048192771084</v>
-      </c>
-      <c r="L38">
-        <v>20</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C39">
-        <v>13</v>
-      </c>
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="E39">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F39">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>285</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K39">
-        <v>0.02432778489116517</v>
+        <v>0.02346041055718475</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2543,21 +2459,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>762</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0.02222222222222222</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="L40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2569,21 +2485,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>528</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0.02120141342756184</v>
+        <v>0.01440092165898618</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2595,21 +2511,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>277</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K42">
-        <v>0.01623376623376623</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2621,33 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.01324884792626728</v>
-      </c>
-      <c r="L43">
-        <v>23</v>
-      </c>
-      <c r="M43">
-        <v>23</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1713</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
